--- a/1F. Agenda en notulen van elke vergadering/Agenda's/Agenda week 6.xlsx
+++ b/1F. Agenda en notulen van elke vergadering/Agenda's/Agenda week 6.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teun\Documents\GitHub\Groep1-Barroc-it\1F. Agenda en notulen van elke vergadering\Agenda's\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25516"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="19440" windowHeight="9795"/>
+    <workbookView xWindow="240" yWindow="100" windowWidth="24420" windowHeight="14640"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,12 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -29,7 +29,7 @@
     <author>Fer</author>
   </authors>
   <commentList>
-    <comment ref="E3" authorId="0" shapeId="0">
+    <comment ref="E3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0">
+    <comment ref="B4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H19" authorId="0" shapeId="0">
+    <comment ref="H19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -322,14 +322,14 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -337,33 +337,33 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -372,7 +372,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -380,17 +380,17 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -400,7 +400,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -408,12 +408,12 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -422,55 +422,55 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -605,7 +605,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normaal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -691,7 +691,7 @@
     </a:clrScheme>
     <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -726,7 +726,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -935,32 +935,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="77" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
-    <col min="8" max="8" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.7109375" customWidth="1"/>
-    <col min="10" max="10" width="5.5703125" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" customWidth="1"/>
+    <col min="8" max="8" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.6640625" customWidth="1"/>
+    <col min="10" max="10" width="5.5" customWidth="1"/>
     <col min="16" max="16" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" ht="15" thickBot="1"/>
+    <row r="2" spans="2:10" ht="15" thickBot="1">
       <c r="B2" s="52"/>
       <c r="C2" s="53"/>
       <c r="D2" s="53"/>
@@ -970,7 +970,7 @@
       <c r="H2" s="54"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10">
       <c r="B3" s="55" t="s">
         <v>18</v>
       </c>
@@ -984,7 +984,7 @@
       <c r="H3" s="60"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10">
       <c r="B4" s="67" t="s">
         <v>24</v>
       </c>
@@ -996,7 +996,7 @@
       <c r="H4" s="63"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" ht="15" thickBot="1">
       <c r="B5" s="70" t="s">
         <v>29</v>
       </c>
@@ -1008,7 +1008,7 @@
       <c r="H5" s="66"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" ht="15" thickBot="1">
       <c r="B6" s="6" t="s">
         <v>0</v>
       </c>
@@ -1026,7 +1026,7 @@
       <c r="H6" s="11"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="2:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="17">
       <c r="B7" s="12"/>
       <c r="C7" s="13"/>
       <c r="D7" s="14"/>
@@ -1036,7 +1036,7 @@
       <c r="H7" s="18"/>
       <c r="I7" s="19"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10">
       <c r="B8" s="13"/>
       <c r="C8" s="13">
         <v>1</v>
@@ -1055,7 +1055,7 @@
       <c r="I8" s="19"/>
       <c r="J8" s="20"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10">
       <c r="B9" s="13"/>
       <c r="C9" s="13">
         <v>1</v>
@@ -1072,7 +1072,7 @@
       <c r="H9" s="18"/>
       <c r="I9" s="19"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10">
       <c r="B10" s="13"/>
       <c r="C10" s="13">
         <v>7</v>
@@ -1090,7 +1090,7 @@
       <c r="H10" s="18"/>
       <c r="I10" s="19"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10">
       <c r="B11" s="13"/>
       <c r="C11" s="13">
         <v>7</v>
@@ -1108,7 +1108,7 @@
       <c r="H11" s="25"/>
       <c r="I11" s="19"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10">
       <c r="B12" s="13"/>
       <c r="C12" s="13">
         <v>4</v>
@@ -1126,7 +1126,7 @@
       <c r="H12" s="25"/>
       <c r="I12" s="19"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10">
       <c r="B13" s="13"/>
       <c r="C13" s="13">
         <v>5</v>
@@ -1144,7 +1144,7 @@
       <c r="H13" s="25"/>
       <c r="I13" s="19"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10">
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="22"/>
@@ -1156,7 +1156,7 @@
       <c r="H14" s="25"/>
       <c r="I14" s="19"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10">
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="22"/>
@@ -1168,7 +1168,7 @@
       <c r="H15" s="18"/>
       <c r="I15" s="19"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10">
       <c r="B16" s="22"/>
       <c r="C16" s="13">
         <v>3</v>
@@ -1186,7 +1186,7 @@
       <c r="H16" s="18"/>
       <c r="I16" s="19"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15" thickBot="1">
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
@@ -1195,7 +1195,7 @@
       <c r="G17" s="30"/>
       <c r="H17" s="31"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="B18" s="32"/>
       <c r="C18" s="33">
         <f>SUM(C8:C17)</f>
@@ -1213,7 +1213,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="B19" s="37"/>
       <c r="C19" s="33"/>
       <c r="D19" s="38" t="s">
@@ -1228,7 +1228,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="B20" s="37"/>
       <c r="C20" s="33"/>
       <c r="D20" s="38" t="s">
@@ -1241,7 +1241,7 @@
       <c r="G20" s="39"/>
       <c r="H20" s="40"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="B21" s="37"/>
       <c r="C21" s="33"/>
       <c r="D21" s="38" t="s">
@@ -1254,7 +1254,7 @@
       <c r="G21" s="39"/>
       <c r="H21" s="40"/>
     </row>
-    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15" thickBot="1">
       <c r="B22" s="41"/>
       <c r="C22" s="42"/>
       <c r="D22" s="43" t="s">
@@ -1267,12 +1267,12 @@
       <c r="G22" s="45"/>
       <c r="H22" s="46"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="E24" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="B25" s="47"/>
       <c r="E25" s="4">
         <v>1</v>
@@ -1282,7 +1282,7 @@
       </c>
       <c r="I25" s="49"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="C26" s="1"/>
       <c r="E26" s="4">
         <v>2</v>
@@ -1292,7 +1292,7 @@
       </c>
       <c r="I26" s="49"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="C27" s="1"/>
       <c r="E27" s="4">
         <v>3</v>
@@ -1300,7 +1300,7 @@
       <c r="F27" s="23"/>
       <c r="I27" s="49"/>
     </row>
-    <row r="28" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" s="1" customFormat="1">
       <c r="A28"/>
       <c r="D28" s="3"/>
       <c r="E28" s="4">
@@ -1311,14 +1311,14 @@
       <c r="H28" s="50"/>
       <c r="I28" s="51"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="1"/>
       <c r="E29" s="4">
         <v>5</v>
       </c>
       <c r="I29" s="49"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="1"/>
       <c r="E30" s="4">
         <v>6</v>
@@ -1326,7 +1326,7 @@
       <c r="F30" s="48"/>
       <c r="I30" s="49"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="1"/>
       <c r="E31" s="4">
         <v>7</v>
@@ -1334,18 +1334,18 @@
       <c r="F31" s="48"/>
       <c r="I31" s="49"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="1"/>
       <c r="F32" s="48"/>
       <c r="I32" s="49"/>
     </row>
-    <row r="33" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:12" ht="14.25" customHeight="1">
       <c r="E33" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I33" s="49"/>
     </row>
-    <row r="34" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:12" ht="14.25" customHeight="1">
       <c r="E34" s="4">
         <v>1</v>
       </c>
@@ -1357,7 +1357,7 @@
       <c r="K34" s="21"/>
       <c r="L34" s="21"/>
     </row>
-    <row r="35" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:12" ht="14.25" customHeight="1">
       <c r="E35" s="4">
         <v>2</v>
       </c>
@@ -1369,7 +1369,7 @@
       <c r="K35" s="21"/>
       <c r="L35" s="21"/>
     </row>
-    <row r="36" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:12" ht="14.25" customHeight="1">
       <c r="E36" s="4">
         <v>3</v>
       </c>
@@ -1378,76 +1378,76 @@
       <c r="K36" s="21"/>
       <c r="L36" s="21"/>
     </row>
-    <row r="37" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:12" ht="14.25" customHeight="1">
       <c r="I37" s="5"/>
     </row>
-    <row r="38" spans="5:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:12" ht="10.5" customHeight="1">
       <c r="I38" s="5"/>
     </row>
-    <row r="39" spans="5:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:12" ht="10.5" customHeight="1">
       <c r="I39" s="5"/>
     </row>
-    <row r="40" spans="5:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:12" ht="10.5" customHeight="1">
       <c r="I40" s="5"/>
     </row>
-    <row r="41" spans="5:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:12" ht="10.5" customHeight="1">
       <c r="I41" s="5"/>
     </row>
-    <row r="42" spans="5:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:12" ht="10.5" customHeight="1">
       <c r="I42" s="5"/>
     </row>
-    <row r="43" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:12">
       <c r="I43" s="5"/>
     </row>
-    <row r="44" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:12">
       <c r="I44" s="5"/>
     </row>
-    <row r="45" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:12">
       <c r="I45" s="5"/>
     </row>
-    <row r="46" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:12">
       <c r="I46" s="5"/>
     </row>
-    <row r="47" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:12">
       <c r="I47" s="5"/>
     </row>
-    <row r="48" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:12">
       <c r="I48" s="5"/>
     </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="9:9">
       <c r="I49" s="5"/>
     </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="9:9">
       <c r="I50" s="5"/>
     </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="9:9">
       <c r="I51" s="5"/>
     </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="9:9">
       <c r="I52" s="5"/>
     </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="9:9">
       <c r="I53" s="5"/>
     </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="9:9">
       <c r="I54" s="5"/>
     </row>
-    <row r="55" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="9:9">
       <c r="I55" s="5"/>
     </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="9:9">
       <c r="I56" s="5"/>
     </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="9:9">
       <c r="I57" s="5"/>
     </row>
-    <row r="58" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="9:9">
       <c r="I58" s="5"/>
     </row>
-    <row r="59" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="9:9">
       <c r="I59" s="5"/>
     </row>
-    <row r="60" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="9:9">
       <c r="I60" s="5"/>
     </row>
   </sheetData>
@@ -1459,8 +1459,13 @@
     <mergeCell ref="B5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="55" orientation="landscape" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup scale="55" orientation="landscape"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1470,9 +1475,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1482,9 +1492,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1498,6 +1513,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C8428B090D81B34DA19517DD6F855647" ma:contentTypeVersion="0" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="461551752daf7baccd316804784cc5e1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b118b0825d757084c8d1e1ffd33f200c">
     <xsd:element name="properties">
@@ -1546,12 +1567,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56D4A539-5E71-46A4-A076-A8448D6640BC}">
   <ds:schemaRefs>
@@ -1561,6 +1576,20 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC78C7E-41AD-4518-BFAA-0ABA4B09AB48}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8B5FF3C-AF10-4D69-A171-7686A3EF9E92}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1573,18 +1602,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC78C7E-41AD-4518-BFAA-0ABA4B09AB48}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>